--- a/intervention/computer_science_auto.xlsx
+++ b/intervention/computer_science_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,101 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C931100609010</t>
+          <t>X931412020027</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>U931252114001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C931100609010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>G931321113006</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Y931321309029</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P931101109055</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R931258916027</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L931412020030</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R931253116053</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>K931383410019</t>
         </is>
       </c>
     </row>
